--- a/causal_discovery/table_causal_discovery_validation.xlsx
+++ b/causal_discovery/table_causal_discovery_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\CausalModel_FaultUnderstanding\causal_discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3B2E61-3F32-4CDA-A6DF-D9E84BFE61E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451FB2C7-1209-4B26-982C-FF5277132D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2498" yWindow="1140" windowWidth="15675" windowHeight="9660" activeTab="2" xr2:uid="{A060AED7-2109-4132-8D42-89F431715A03}"/>
+    <workbookView xWindow="2498" yWindow="1140" windowWidth="15675" windowHeight="9660" xr2:uid="{A060AED7-2109-4132-8D42-89F431715A03}"/>
   </bookViews>
   <sheets>
     <sheet name="E1 E2" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>edge</t>
   </si>
@@ -64,18 +64,6 @@
     <t>Qualification Test</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>IAM.FDR</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>TABU</t>
-  </si>
-  <si>
     <t>Non-Clustered</t>
   </si>
   <si>
@@ -118,12 +106,6 @@
     <t>Professional</t>
   </si>
   <si>
-    <t>references</t>
-  </si>
-  <si>
-    <t>\cite{}</t>
-  </si>
-  <si>
     <t>Letters correspond to identification of the edge by any of the following algorithms implemented in the bnlearn api /cite{bnlearn2016discovery}.</t>
   </si>
   <si>
@@ -131,12 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve"> a (pc), b (iam.fdr), c (hc), d (tabu), e (mmhc), f (h2pc)</t>
-  </si>
-  <si>
-    <t>mmhc</t>
-  </si>
-  <si>
-    <t>h2pc</t>
   </si>
   <si>
     <t>\begin{list}</t>
@@ -401,6 +377,27 @@
   </si>
   <si>
     <t>List of causal graph discovery algorithms (from the bnlearn library \cite{scutari2014bayesian,bnlearn}.</t>
+  </si>
+  <si>
+    <t>a,</t>
+  </si>
+  <si>
+    <t>partic_age -&gt; prog_years</t>
+  </si>
+  <si>
+    <t>partic_age -&gt; test_duration</t>
+  </si>
+  <si>
+    <t>prog_years -&gt; test_duration</t>
+  </si>
+  <si>
+    <t>test_duration -&gt; Score</t>
+  </si>
+  <si>
+    <t>prog_years -&gt; test_score</t>
+  </si>
+  <si>
+    <t>partic_age -&gt; test_score</t>
   </si>
 </sst>
 </file>
@@ -769,102 +766,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69BABF9-D4A6-40C3-BD83-3D8E7EF6931B}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.86328125" customWidth="1"/>
-    <col min="6" max="6" width="14.9296875" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="10.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.9296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E2CDDC-3D99-441A-AE8D-3FBF58D79FCA}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -879,22 +886,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -929,65 +936,17 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B84A5D8-3D4D-492B-9B39-955BB0312951}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -1007,62 +966,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1085,307 +1044,307 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/causal_discovery/table_causal_discovery_validation.xlsx
+++ b/causal_discovery/table_causal_discovery_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Documents\GitHub\CausalModel_FaultUnderstanding\causal_discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451FB2C7-1209-4B26-982C-FF5277132D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51701BE2-9BDE-48C6-801D-9AF5E6B5C089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2498" yWindow="1140" windowWidth="15675" windowHeight="9660" xr2:uid="{A060AED7-2109-4132-8D42-89F431715A03}"/>
+    <workbookView xWindow="2498" yWindow="1140" windowWidth="15675" windowHeight="9660" activeTab="2" xr2:uid="{A060AED7-2109-4132-8D42-89F431715A03}"/>
   </bookViews>
   <sheets>
     <sheet name="E1 E2" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>edge</t>
   </si>
@@ -151,9 +151,6 @@
     <t>%PC</t>
   </si>
   <si>
-    <t>\item PC \cite{colombo2014order}</t>
-  </si>
-  <si>
     <t>@inproceedings{pena2008learning,</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">  organization={Springer}</t>
-  </si>
-  <si>
-    <t>\item iam.fdr \cite{pena2008learning}</t>
   </si>
   <si>
     <r>
@@ -274,15 +268,6 @@
     <t>%HC and Tabu</t>
   </si>
   <si>
-    <t>%iam.fdr</t>
-  </si>
-  <si>
-    <t>\item Hill-Climbing (hc) \cite{russell2009upper}: a hill climbing greedy search that explores the space of the directed acyclic graphs by single-arc addition, removal and reversals; with random restarts to avoid local optima. The optimized implementation uses score caching, score decomposability and score equivalence to reduce the number of duplicated tests.</t>
-  </si>
-  <si>
-    <t>\item Tabu Search (tabu) \cite{russell2009upper}: a modified hill-climbing able to escape local optima by selecting a network that minimally decreases the score function.</t>
-  </si>
-  <si>
     <t>@article{tsamardinos2006max,</t>
   </si>
   <si>
@@ -340,12 +325,6 @@
     <t>%h2pc</t>
   </si>
   <si>
-    <t>\itemHybrid HPC (h2pc) \cite{gasse2014hybrid}: a hybrid algorithm combining HPC and hill-climbing.</t>
-  </si>
-  <si>
-    <t>\item Max-Min Hill-Climbing (mmhc)\cite{tsamardinos2006max}: a hybrid algorithm which combines the Max-Min Parents and Children algorithm (to restrict the search space) and the Hill-Climbing algorithm (to find the optimal network structure in the restricted space).</t>
-  </si>
-  <si>
     <t>@software{bnlearn,</t>
   </si>
   <si>
@@ -398,6 +377,54 @@
   </si>
   <si>
     <t>partic_age -&gt; test_score</t>
+  </si>
+  <si>
+    <t>@inproceedings{tsamardinos2003algorithms,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  title={Algorithms for large scale Markov blanket discovery.},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  author={Tsamardinos, Ioannis and Aliferis, Constantin F and Statnikov, Alexander R and Statnikov, Er},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  booktitle={FLAIRS conference},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  volume={2},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pages={376--380},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  year={2003},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  organization={St. Augustine, FL}</t>
+  </si>
+  <si>
+    <t>%iamb.fdr</t>
+  </si>
+  <si>
+    <t>%iamb</t>
+  </si>
+  <si>
+    <t>\item \textbf{pc} (pc.stable) \cite{colombo2014order}: seminal constraint-based structure learning algorithm based on conditonal tests.</t>
+  </si>
+  <si>
+    <t>\item \textbfImproved Markov Blanket Algorithm} (iamb.fdr) \cite{pena2008learning} is an improvement on the IAMB \cite{tsamardinos2003algorithms} by adjusting the tests significance threshold with false discovery rate heuristics.</t>
+  </si>
+  <si>
+    <t>\item \textbf{Hill-Climbing} (hc) \cite{russell2009upper}: a hill climbing greedy search that explores the space of the directed acyclic graphs by single-arc addition, removal and reversals; with random restarts to avoid local optima. The optimized implementation uses score caching, score decomposability and score equivalence to reduce the number of duplicated tests.</t>
+  </si>
+  <si>
+    <t>\item \textbf{Tabu Search} (tabu) \cite{russell2009upper}: a modified hill-climbing able to escape local optima by selecting a network that minimally decreases the score function.</t>
+  </si>
+  <si>
+    <t>\item \textbf{Max-Min Hill-Climbing} (mmhc)\cite{tsamardinos2006max}: a hybrid algorithm which combines the Max-Min Parents and Children algorithm (to restrict the search space) and the Hill-Climbing algorithm (to find the optimal network structure in the restricted space).</t>
+  </si>
+  <si>
+    <t>\item \textbf{Hybrid HPC} (h2pc) \cite{gasse2014hybrid}: a hybrid algorithm combining HPC and hill-climbing.</t>
   </si>
 </sst>
 </file>
@@ -446,12 +473,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69BABF9-D4A6-40C3-BD83-3D8E7EF6931B}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -815,44 +846,44 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -958,69 +989,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B84A5D8-3D4D-492B-9B39-955BB0312951}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.06640625" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>89</v>
+      <c r="A1" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>78</v>
+      <c r="A12" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>77</v>
+      <c r="A13" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1031,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF38EC3D-6E87-4A0C-AA00-6507B1BB1176}">
-  <dimension ref="A2:A64"/>
+  <dimension ref="A2:A74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1093,257 +1125,307 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
+      <c r="A12" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
+      <c r="A13" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
+      <c r="A14" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
+      <c r="A15" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>41</v>
+      <c r="A16" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>42</v>
+      <c r="A17" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
+      <c r="A18" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
+      <c r="A19" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
+      <c r="A22" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
+      <c r="A28" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
+      <c r="A31" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>35</v>
+      <c r="A38" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>76</v>
+      <c r="A39" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>35</v>
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>35</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
     </row>
